--- a/R Scripts/Dataset/CRQ3_3_UNIQUE.xlsx
+++ b/R Scripts/Dataset/CRQ3_3_UNIQUE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{618FBC27-54D5-4CAE-9DAF-526FA87C19AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C3556FB0-DE7E-470B-8CDB-7ED1C86503A7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{618FBC27-54D5-4CAE-9DAF-526FA87C19AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0D1769E7-D141-4923-B75F-1441D0CC6085}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{346CFB6A-9EFD-4CCC-A69D-50950BF6F658}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>TEMPO_TOTAL_POR_K_LOC_EM_100_COMMITS_S_FW</t>
+    <t>TOTAL_TIME_PER_KLOC_IN_100_COMMITS_WO_FT</t>
   </si>
   <si>
-    <t>TEMPO_TOTAL_POR_K_LOC_EM_100_COMMITS_C_FW</t>
+    <t>TOTAL_TIME_PER_KLOC_IN_100_COMMITS_WITH_FT</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70668618-A071-43F9-83E0-FA10D8F19ACF}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
